--- a/baseDatos.xlsx
+++ b/baseDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bondt\OneDrive\Escritorio\laburo\proyectosRaros\adminHorarioProfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025783E6-B5FD-4656-B90D-92A56F3235C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E06C3-F551-48CC-95D0-FE3A171FCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4990C231-97D9-4923-90D6-20F35B0A28B0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>legajo</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>numero</t>
-  </si>
-  <si>
-    <t>3.4.070</t>
-  </si>
-  <si>
-    <t>3.4.071</t>
-  </si>
-  <si>
-    <t>3.4.072</t>
   </si>
 </sst>
 </file>
@@ -519,7 +510,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,10 +563,13 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
+      <c r="G2">
+        <v>1153497</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -592,10 +586,13 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
+      <c r="G3">
+        <v>1532648</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -615,7 +612,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -632,9 +629,13 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
+      <c r="G5">
+        <v>1212325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/baseDatos.xlsx
+++ b/baseDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bondt\OneDrive\Escritorio\laburo\proyectosRaros\adminHorarioProfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E06C3-F551-48CC-95D0-FE3A171FCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C5AD0-DCCB-43FD-941D-2C32EB106D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4990C231-97D9-4923-90D6-20F35B0A28B0}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>legajo</t>
   </si>
@@ -110,16 +110,43 @@
   </si>
   <si>
     <t>numero</t>
+  </si>
+  <si>
+    <t>3.4.070</t>
+  </si>
+  <si>
+    <t>3.4.071</t>
+  </si>
+  <si>
+    <t>facultad</t>
+  </si>
+  <si>
+    <t>informatica</t>
+  </si>
+  <si>
+    <t>materia de pruebaa</t>
+  </si>
+  <si>
+    <t>nunca</t>
+  </si>
+  <si>
+    <t>tec universitaria en desarrollo de software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89296C9-D6EE-41D0-9B7A-A8394F6A65AC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,7 +500,7 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +513,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1153497</v>
       </c>
@@ -497,6 +528,9 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -507,17 +541,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977A2393-FE7A-4C8E-9FD8-C38BBB96C950}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,7 +626,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -612,7 +646,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -633,7 +667,28 @@
         <v>1212325</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
